--- a/testData/muleguard-reports/customerOrderV2/report.xlsx
+++ b/testData/muleguard-reports/customerOrderV2/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Rule ID</t>
   </si>
@@ -68,40 +68,70 @@
     <t>MEDIUM</t>
   </si>
   <si>
+    <t>RULE-005</t>
+  </si>
+  <si>
+    <t>Validate IBM MQ Connector Cipher Suite</t>
+  </si>
+  <si>
+    <t>RULE-006</t>
+  </si>
+  <si>
+    <t>Add pom dependency: apimuleutilities for JCE Encrypt/Decrypt</t>
+  </si>
+  <si>
+    <t>RULE-007</t>
+  </si>
+  <si>
+    <t>Validate mule-artifact.json (Mule 4.9+, Java 17, secureProperties)</t>
+  </si>
+  <si>
+    <t>RULE-008</t>
+  </si>
+  <si>
+    <t>Check for api-gateway:autodiscovery</t>
+  </si>
+  <si>
+    <t>RULE-009</t>
+  </si>
+  <si>
+    <t>Remove unsupported error handling expressions</t>
+  </si>
+  <si>
+    <t>RULE-011</t>
+  </si>
+  <si>
+    <t>Check for DLP references</t>
+  </si>
+  <si>
+    <t>RULE-012</t>
+  </si>
+  <si>
+    <t>Check for legacy JCE PBE encryption algorithm</t>
+  </si>
+  <si>
+    <t>RULE-013</t>
+  </si>
+  <si>
+    <t>Check for 'type' attribute in crypto:jce-config</t>
+  </si>
+  <si>
+    <t>RULE-014</t>
+  </si>
+  <si>
+    <t>Check for toBase64 in set-variable</t>
+  </si>
+  <si>
     <t>RULE-004</t>
   </si>
   <si>
     <t>Remove pom dependency: spring-security-ldap, spring-security-web, mule-module-spring-config, and db2jcc_license_cu</t>
   </si>
   <si>
-    <t>RULE-005</t>
-  </si>
-  <si>
-    <t>Validate IBM MQ Connector Cipher Suite</t>
-  </si>
-  <si>
-    <t>RULE-006</t>
-  </si>
-  <si>
-    <t>Add pom dependency: apimuleutilities for JCE Encrypt/Decrypt</t>
-  </si>
-  <si>
-    <t>RULE-007</t>
-  </si>
-  <si>
-    <t>Validate mule-artifact.json (Mule 4.9+, Java 17, secureProperties)</t>
-  </si>
-  <si>
-    <t>RULE-008</t>
-  </si>
-  <si>
-    <t>Check for api-gateway:autodiscovery</t>
-  </si>
-  <si>
-    <t>RULE-009</t>
-  </si>
-  <si>
-    <t>Remove unsupported error handling expressions</t>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>• Forbidden dependency found: org.springframework.security:spring-security-ldap</t>
   </si>
   <si>
     <t>RULE-010</t>
@@ -110,28 +140,10 @@
     <t>Remove unsupported from/to ApplicationCode attributes</t>
   </si>
   <si>
-    <t>RULE-011</t>
-  </si>
-  <si>
-    <t>Check for DLP references</t>
-  </si>
-  <si>
-    <t>RULE-012</t>
-  </si>
-  <si>
-    <t>Check for legacy JCE PBE encryption algorithm</t>
-  </si>
-  <si>
-    <t>RULE-013</t>
-  </si>
-  <si>
-    <t>Check for 'type' attribute in crypto:jce-config</t>
-  </si>
-  <si>
-    <t>RULE-014</t>
-  </si>
-  <si>
-    <t>Check for toBase64 in set-variable</t>
+    <t>• Found forbidden attributes:
+File: META-INF\mule-src\mule4generictemplate\src\main\mule\error-handling-subflow.xml - Found: 'doc:id' in &lt;ee:transform&gt;
+File: META-INF\mule-src\mule4generictemplate\src\main\mule\global.xml - Found: 'doc:id' in &lt;ee:transform&gt;
+File: src\main\mule\rakstestmuleapi.xml - Found: 'doc:id' in &lt;request_in&gt;</t>
   </si>
 </sst>
 </file>
@@ -221,11 +233,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.41015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.97265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.38671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="97.265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="102.97265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -321,7 +333,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>8</v>
@@ -372,7 +384,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>8</v>
@@ -389,7 +401,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>8</v>
@@ -467,37 +479,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="3">
         <v>37</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>9</v>
+      <c r="C15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="3">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s" s="3">
         <v>38</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>9</v>
+      <c r="E16" t="s" s="3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
